--- a/models/PurchasePricePrediction.xlsx
+++ b/models/PurchasePricePrediction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-git\data-mining\DataMining\models-new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-git\data-mining\DataMining\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{51AFEC7B-8E28-40CA-B0EF-50B4106297AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5BB12B2A-339A-4073-AC0C-D03B7D0E1B62}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{A58F7580-45F0-46A6-9A1C-38B388C5561B}"/>
   </bookViews>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4248C3-12D7-4669-ACAB-4AE7F7FDE02C}">
   <dimension ref="A1:C1373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1363" workbookViewId="0">
-      <selection activeCell="O1344" sqref="O1344"/>
+    <sheetView tabSelected="1" topLeftCell="A1077" workbookViewId="0">
+      <selection activeCell="C1099" sqref="C1099:C1373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12481,7 +12481,7 @@
         <v>42826</v>
       </c>
       <c r="C1099">
-        <v>2.37864838281397</v>
+        <v>2.3806917597447201</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
@@ -12489,7 +12489,7 @@
         <v>42827</v>
       </c>
       <c r="C1100">
-        <v>2.0475052172956398</v>
+        <v>2.42401993167051</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
@@ -12497,7 +12497,7 @@
         <v>42828</v>
       </c>
       <c r="C1101">
-        <v>2.0021089502763001</v>
+        <v>2.3935236739865502</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
@@ -12505,7 +12505,7 @@
         <v>42829</v>
       </c>
       <c r="C1102">
-        <v>2.0708804604479001</v>
+        <v>2.3464699079291802</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
@@ -12513,7 +12513,7 @@
         <v>42830</v>
       </c>
       <c r="C1103">
-        <v>2.1166955056755001</v>
+        <v>2.2922017887056798</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
@@ -12521,7 +12521,7 @@
         <v>42831</v>
       </c>
       <c r="C1104">
-        <v>2.1162813584163702</v>
+        <v>2.2669259714680101</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
@@ -12529,7 +12529,7 @@
         <v>42832</v>
       </c>
       <c r="C1105">
-        <v>2.1691674928304399</v>
+        <v>2.26836256028606</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
@@ -12537,7 +12537,7 @@
         <v>42833</v>
       </c>
       <c r="C1106">
-        <v>2.2757516619987901</v>
+        <v>2.3042547526147898</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
@@ -12545,7 +12545,7 @@
         <v>42834</v>
       </c>
       <c r="C1107">
-        <v>2.1161482227737101</v>
+        <v>2.26742957251003</v>
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
@@ -12553,7 +12553,7 @@
         <v>42835</v>
       </c>
       <c r="C1108">
-        <v>2.1135881008765098</v>
+        <v>2.2412346544167501</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
@@ -12561,7 +12561,7 @@
         <v>42836</v>
       </c>
       <c r="C1109">
-        <v>2.1062047531721801</v>
+        <v>2.2037969229393699</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
@@ -12569,7 +12569,7 @@
         <v>42837</v>
       </c>
       <c r="C1110">
-        <v>2.0971731435704899</v>
+        <v>2.1938512220252999</v>
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
@@ -12577,7 +12577,7 @@
         <v>42838</v>
       </c>
       <c r="C1111">
-        <v>2.1039012995796198</v>
+        <v>2.2031013585756001</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
@@ -12585,7 +12585,7 @@
         <v>42839</v>
       </c>
       <c r="C1112">
-        <v>2.1446073914236798</v>
+        <v>2.2113942485880602</v>
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
@@ -12593,7 +12593,7 @@
         <v>42840</v>
       </c>
       <c r="C1113">
-        <v>2.2189393111721398</v>
+        <v>2.2411705781436</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
@@ -12601,7 +12601,7 @@
         <v>42841</v>
       </c>
       <c r="C1114">
-        <v>2.2117033359637701</v>
+        <v>2.1410265210139601</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
@@ -12609,7 +12609,7 @@
         <v>42842</v>
       </c>
       <c r="C1115">
-        <v>2.1635512202196501</v>
+        <v>2.1223044209843902</v>
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
@@ -12617,7 +12617,7 @@
         <v>42843</v>
       </c>
       <c r="C1116">
-        <v>2.1358804995553902</v>
+        <v>2.1091489689002501</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
@@ -12625,7 +12625,7 @@
         <v>42844</v>
       </c>
       <c r="C1117">
-        <v>2.130534980408</v>
+        <v>2.1028915075583701</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
@@ -12633,7 +12633,7 @@
         <v>42845</v>
       </c>
       <c r="C1118">
-        <v>2.1336617589570399</v>
+        <v>2.1236927583913001</v>
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
@@ -12641,7 +12641,7 @@
         <v>42846</v>
       </c>
       <c r="C1119">
-        <v>2.1515568914816101</v>
+        <v>2.1529913613288101</v>
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
@@ -12649,7 +12649,7 @@
         <v>42847</v>
       </c>
       <c r="C1120">
-        <v>2.22194177261767</v>
+        <v>2.2032794746100102</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
@@ -12657,7 +12657,7 @@
         <v>42848</v>
       </c>
       <c r="C1121">
-        <v>2.1868123721474002</v>
+        <v>2.1014447903437499</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
@@ -12665,7 +12665,7 @@
         <v>42849</v>
       </c>
       <c r="C1122">
-        <v>2.1510077256092499</v>
+        <v>2.0753591633061701</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
@@ -12673,7 +12673,7 @@
         <v>42850</v>
       </c>
       <c r="C1123">
-        <v>2.1473130891508601</v>
+        <v>2.0616108971763301</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
@@ -12681,7 +12681,7 @@
         <v>42851</v>
       </c>
       <c r="C1124">
-        <v>2.1587994933024901</v>
+        <v>2.0670582176166201</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
@@ -12689,7 +12689,7 @@
         <v>42852</v>
       </c>
       <c r="C1125">
-        <v>2.1421625337346999</v>
+        <v>2.1028552179497</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
@@ -12697,7 +12697,7 @@
         <v>42853</v>
       </c>
       <c r="C1126">
-        <v>2.17666630775188</v>
+        <v>2.1530674667232099</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
@@ -12705,7 +12705,7 @@
         <v>42854</v>
       </c>
       <c r="C1127">
-        <v>2.2825267120773698</v>
+        <v>2.2273674968987001</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
@@ -12713,7 +12713,7 @@
         <v>42855</v>
       </c>
       <c r="C1128">
-        <v>2.1048153950908901</v>
+        <v>2.0574402663397402</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
@@ -12721,7 +12721,7 @@
         <v>42856</v>
       </c>
       <c r="C1129">
-        <v>2.0219311013651802</v>
+        <v>2.4018377444351402</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
@@ -12729,7 +12729,7 @@
         <v>42857</v>
       </c>
       <c r="C1130">
-        <v>2.07848834421993</v>
+        <v>2.3718231795658502</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
@@ -12737,7 +12737,7 @@
         <v>42858</v>
       </c>
       <c r="C1131">
-        <v>2.1279724997857699</v>
+        <v>2.31453944449202</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
@@ -12745,7 +12745,7 @@
         <v>42859</v>
       </c>
       <c r="C1132">
-        <v>2.1306522074414</v>
+        <v>2.2812581244010102</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
@@ -12753,7 +12753,7 @@
         <v>42860</v>
       </c>
       <c r="C1133">
-        <v>2.1874676548239802</v>
+        <v>2.2835060481804299</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
@@ -12761,7 +12761,7 @@
         <v>42861</v>
       </c>
       <c r="C1134">
-        <v>2.3000543285714299</v>
+        <v>2.3197295920158401</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
@@ -12769,7 +12769,7 @@
         <v>42862</v>
       </c>
       <c r="C1135">
-        <v>2.06814497822841</v>
+        <v>2.2969115129837099</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
@@ -12777,7 +12777,7 @@
         <v>42863</v>
       </c>
       <c r="C1136">
-        <v>2.06657480194841</v>
+        <v>2.2629645493441202</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.25">
@@ -12785,7 +12785,7 @@
         <v>42864</v>
       </c>
       <c r="C1137">
-        <v>2.08968403948426</v>
+        <v>2.2078902544529502</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
@@ -12793,7 +12793,7 @@
         <v>42865</v>
       </c>
       <c r="C1138">
-        <v>2.09735445344322</v>
+        <v>2.1734030341298598</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.25">
@@ -12801,7 +12801,7 @@
         <v>42866</v>
       </c>
       <c r="C1139">
-        <v>2.1023920442484201</v>
+        <v>2.18363712705631</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.25">
@@ -12809,7 +12809,7 @@
         <v>42867</v>
       </c>
       <c r="C1140">
-        <v>2.1470704731800101</v>
+        <v>2.2094398947481002</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.25">
@@ -12817,7 +12817,7 @@
         <v>42868</v>
       </c>
       <c r="C1141">
-        <v>2.23001478444364</v>
+        <v>2.2536004940527099</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.25">
@@ -12825,7 +12825,7 @@
         <v>42869</v>
       </c>
       <c r="C1142">
-        <v>2.20672786846756</v>
+        <v>2.1071630582777501</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.25">
@@ -12833,7 +12833,7 @@
         <v>42870</v>
       </c>
       <c r="C1143">
-        <v>2.1698717426631</v>
+        <v>2.0791238861280799</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.25">
@@ -12841,7 +12841,7 @@
         <v>42871</v>
       </c>
       <c r="C1144">
-        <v>2.1351217400187599</v>
+        <v>2.0586208680969098</v>
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.25">
@@ -12849,7 +12849,7 @@
         <v>42872</v>
       </c>
       <c r="C1145">
-        <v>2.1190494483165399</v>
+        <v>2.05215449393038</v>
       </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.25">
@@ -12857,7 +12857,7 @@
         <v>42873</v>
       </c>
       <c r="C1146">
-        <v>2.1248257218482798</v>
+        <v>2.0829706771762702</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.25">
@@ -12865,7 +12865,7 @@
         <v>42874</v>
       </c>
       <c r="C1147">
-        <v>2.1489620607058</v>
+        <v>2.1311429361852001</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.25">
@@ -12873,7 +12873,7 @@
         <v>42875</v>
       </c>
       <c r="C1148">
-        <v>2.2147384045700802</v>
+        <v>2.1936242663450498</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.25">
@@ -12881,7 +12881,7 @@
         <v>42876</v>
       </c>
       <c r="C1149">
-        <v>2.1948438966834001</v>
+        <v>2.0439468072731901</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.25">
@@ -12889,7 +12889,7 @@
         <v>42877</v>
       </c>
       <c r="C1150">
-        <v>2.1486105890496101</v>
+        <v>1.9848253132634801</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.25">
@@ -12897,7 +12897,7 @@
         <v>42878</v>
       </c>
       <c r="C1151">
-        <v>2.1394228316047799</v>
+        <v>1.9584462003705401</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.25">
@@ -12905,7 +12905,7 @@
         <v>42879</v>
       </c>
       <c r="C1152">
-        <v>2.1537666162663101</v>
+        <v>1.97042276824329</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.25">
@@ -12913,7 +12913,7 @@
         <v>42880</v>
       </c>
       <c r="C1153">
-        <v>2.1404548090992899</v>
+        <v>2.0257987320709798</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.25">
@@ -12921,7 +12921,7 @@
         <v>42881</v>
       </c>
       <c r="C1154">
-        <v>2.1628284299120502</v>
+        <v>2.0961657580317699</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
         <v>42882</v>
       </c>
       <c r="C1155">
-        <v>2.25948577005162</v>
+        <v>2.1829516998288701</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.25">
@@ -12937,7 +12937,7 @@
         <v>42883</v>
       </c>
       <c r="C1156">
-        <v>2.1344086156370499</v>
+        <v>2.0091716412268701</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.25">
@@ -12945,7 +12945,7 @@
         <v>42884</v>
       </c>
       <c r="C1157">
-        <v>2.14003218688562</v>
+        <v>1.9861496490431001</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.25">
@@ -12953,7 +12953,7 @@
         <v>42885</v>
       </c>
       <c r="C1158">
-        <v>2.1644165289429602</v>
+        <v>2.0004851959356702</v>
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.25">
@@ -12961,7 +12961,7 @@
         <v>42886</v>
       </c>
       <c r="C1159">
-        <v>2.1731060810510301</v>
+        <v>2.0243493122099401</v>
       </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.25">
@@ -12969,7 +12969,7 @@
         <v>42887</v>
       </c>
       <c r="C1160">
-        <v>2.17142340450226</v>
+        <v>2.23837567968034</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.25">
@@ -12977,7 +12977,7 @@
         <v>42888</v>
       </c>
       <c r="C1161">
-        <v>2.23219991503063</v>
+        <v>2.2572605405507802</v>
       </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.25">
@@ -12985,7 +12985,7 @@
         <v>42889</v>
       </c>
       <c r="C1162">
-        <v>2.34402474209111</v>
+        <v>2.3152610663957698</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.25">
@@ -12993,7 +12993,7 @@
         <v>42890</v>
       </c>
       <c r="C1163">
-        <v>2.0328817954599199</v>
+        <v>2.2681380261630202</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.25">
@@ -13001,7 +13001,7 @@
         <v>42891</v>
       </c>
       <c r="C1164">
-        <v>2.0107938836038701</v>
+        <v>2.22908039126846</v>
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.25">
@@ -13009,7 +13009,7 @@
         <v>42892</v>
       </c>
       <c r="C1165">
-        <v>2.0731111914436999</v>
+        <v>2.1814362093962498</v>
       </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.25">
@@ -13017,7 +13017,7 @@
         <v>42893</v>
       </c>
       <c r="C1166">
-        <v>2.1073427373419902</v>
+        <v>2.1282428209172499</v>
       </c>
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.25">
@@ -13025,7 +13025,7 @@
         <v>42894</v>
       </c>
       <c r="C1167">
-        <v>2.1079609122349101</v>
+        <v>2.1316316943710301</v>
       </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.25">
@@ -13033,7 +13033,7 @@
         <v>42895</v>
       </c>
       <c r="C1168">
-        <v>2.1572391726768299</v>
+        <v>2.18044419198027</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.25">
@@ -13041,7 +13041,7 @@
         <v>42896</v>
       </c>
       <c r="C1169">
-        <v>2.2548400019980499</v>
+        <v>2.25197524880133</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
@@ -13049,7 +13049,7 @@
         <v>42897</v>
       </c>
       <c r="C1170">
-        <v>2.1641780309274101</v>
+        <v>2.0735809193020098</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.25">
@@ -13057,7 +13057,7 @@
         <v>42898</v>
       </c>
       <c r="C1171">
-        <v>2.15057361825462</v>
+        <v>2.0375981674232801</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>42899</v>
       </c>
       <c r="C1172">
-        <v>2.1221237032587101</v>
+        <v>2.0094005003389399</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.25">
@@ -13073,7 +13073,7 @@
         <v>42900</v>
       </c>
       <c r="C1173">
-        <v>2.10322422699626</v>
+        <v>1.9993664508836999</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.25">
@@ -13081,7 +13081,7 @@
         <v>42901</v>
       </c>
       <c r="C1174">
-        <v>2.11021003308104</v>
+        <v>2.03617294202401</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.25">
@@ -13089,7 +13089,7 @@
         <v>42902</v>
       </c>
       <c r="C1175">
-        <v>2.1451661902189501</v>
+        <v>2.10322277970816</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.25">
@@ -13097,7 +13097,7 @@
         <v>42903</v>
       </c>
       <c r="C1176">
-        <v>2.2131760818514898</v>
+        <v>2.1853349506345099</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.25">
@@ -13105,7 +13105,7 @@
         <v>42904</v>
       </c>
       <c r="C1177">
-        <v>2.20613495443417</v>
+        <v>1.9740929799595499</v>
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
@@ -13113,7 +13113,7 @@
         <v>42905</v>
       </c>
       <c r="C1178">
-        <v>2.1537813650692401</v>
+        <v>1.9023137679372499</v>
       </c>
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.25">
@@ -13121,7 +13121,7 @@
         <v>42906</v>
       </c>
       <c r="C1179">
-        <v>2.1349252157938299</v>
+        <v>1.86036108322769</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.25">
@@ -13129,7 +13129,7 @@
         <v>42907</v>
       </c>
       <c r="C1180">
-        <v>2.1412845580696902</v>
+        <v>1.8569542936087799</v>
       </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.25">
@@ -13137,7 +13137,7 @@
         <v>42908</v>
       </c>
       <c r="C1181">
-        <v>2.1389555930964601</v>
+        <v>1.9181414949953199</v>
       </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.25">
@@ -13145,7 +13145,7 @@
         <v>42909</v>
       </c>
       <c r="C1182">
-        <v>2.1541410808229799</v>
+        <v>2.01767401139392</v>
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.25">
@@ -13153,7 +13153,7 @@
         <v>42910</v>
       </c>
       <c r="C1183">
-        <v>2.2335885831000102</v>
+        <v>2.13150441075401</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
@@ -13161,7 +13161,7 @@
         <v>42911</v>
       </c>
       <c r="C1184">
-        <v>2.1727841320483599</v>
+        <v>1.9103781490734899</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
@@ -13169,7 +13169,7 @@
         <v>42912</v>
       </c>
       <c r="C1185">
-        <v>2.1515307039905198</v>
+        <v>1.8306955026379299</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.25">
@@ -13177,7 +13177,7 @@
         <v>42913</v>
       </c>
       <c r="C1186">
-        <v>2.1559137371756498</v>
+        <v>1.8230291655836599</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
@@ -13185,7 +13185,7 @@
         <v>42914</v>
       </c>
       <c r="C1187">
-        <v>2.16268476855263</v>
+        <v>1.8558080925546401</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
@@ -13193,7 +13193,7 @@
         <v>42915</v>
       </c>
       <c r="C1188">
-        <v>2.1504408437379001</v>
+        <v>1.92359775452223</v>
       </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.25">
@@ -13201,7 +13201,7 @@
         <v>42916</v>
       </c>
       <c r="C1189">
-        <v>2.1994051744690002</v>
+        <v>2.02952734537253</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.25">
@@ -13209,7 +13209,7 @@
         <v>42917</v>
       </c>
       <c r="C1190">
-        <v>2.37864838281397</v>
+        <v>2.2836533771023002</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
@@ -13217,7 +13217,7 @@
         <v>42918</v>
       </c>
       <c r="C1191">
-        <v>2.0475052172956398</v>
+        <v>2.1434597124054098</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
@@ -13225,7 +13225,7 @@
         <v>42919</v>
       </c>
       <c r="C1192">
-        <v>2.0021089502763001</v>
+        <v>2.0938587260030102</v>
       </c>
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.25">
@@ -13233,7 +13233,7 @@
         <v>42920</v>
       </c>
       <c r="C1193">
-        <v>2.0708804604479001</v>
+        <v>2.06181359150465</v>
       </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.25">
@@ -13241,7 +13241,7 @@
         <v>42921</v>
       </c>
       <c r="C1194">
-        <v>2.1166955056755001</v>
+        <v>2.0085722555718801</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.25">
@@ -13249,7 +13249,7 @@
         <v>42922</v>
       </c>
       <c r="C1195">
-        <v>2.1162813584163702</v>
+        <v>2.0191616807696899</v>
       </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.25">
@@ -13257,7 +13257,7 @@
         <v>42923</v>
       </c>
       <c r="C1196">
-        <v>2.1691674928304399</v>
+        <v>2.10639590399833</v>
       </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.25">
@@ -13265,7 +13265,7 @@
         <v>42924</v>
       </c>
       <c r="C1197">
-        <v>2.2757516619987901</v>
+        <v>2.2198108778272401</v>
       </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.25">
@@ -13273,7 +13273,7 @@
         <v>42925</v>
       </c>
       <c r="C1198">
-        <v>2.1161482227737101</v>
+        <v>1.98810824580546</v>
       </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.25">
@@ -13281,7 +13281,7 @@
         <v>42926</v>
       </c>
       <c r="C1199">
-        <v>2.1135881008765098</v>
+        <v>1.94564024189895</v>
       </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.25">
@@ -13289,7 +13289,7 @@
         <v>42927</v>
       </c>
       <c r="C1200">
-        <v>2.1062047531721801</v>
+        <v>1.9171474754034199</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.25">
@@ -13297,7 +13297,7 @@
         <v>42928</v>
       </c>
       <c r="C1201">
-        <v>2.0971731435704899</v>
+        <v>1.8993199645324299</v>
       </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.25">
@@ -13305,7 +13305,7 @@
         <v>42929</v>
       </c>
       <c r="C1202">
-        <v>2.1039012995796198</v>
+        <v>1.94169354460346</v>
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.25">
@@ -13313,7 +13313,7 @@
         <v>42930</v>
       </c>
       <c r="C1203">
-        <v>2.1446073914236798</v>
+        <v>2.0403591568623001</v>
       </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.25">
@@ -13321,7 +13321,7 @@
         <v>42931</v>
       </c>
       <c r="C1204">
-        <v>2.2189393111721398</v>
+        <v>2.15823035092341</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.25">
@@ -13329,7 +13329,7 @@
         <v>42932</v>
       </c>
       <c r="C1205">
-        <v>2.2117033359637701</v>
+        <v>1.8836605764648</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.25">
@@ -13337,7 +13337,7 @@
         <v>42933</v>
       </c>
       <c r="C1206">
-        <v>2.1635512202196501</v>
+        <v>1.81576923986418</v>
       </c>
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.25">
@@ -13345,7 +13345,7 @@
         <v>42934</v>
       </c>
       <c r="C1207">
-        <v>2.1358804995553902</v>
+        <v>1.7763608470421599</v>
       </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.25">
@@ -13353,7 +13353,7 @@
         <v>42935</v>
       </c>
       <c r="C1208">
-        <v>2.130534980408</v>
+        <v>1.7700236904084099</v>
       </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.25">
@@ -13361,7 +13361,7 @@
         <v>42936</v>
       </c>
       <c r="C1209">
-        <v>2.1336617589570399</v>
+        <v>1.8327085288281499</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.25">
@@ -13369,7 +13369,7 @@
         <v>42937</v>
       </c>
       <c r="C1210">
-        <v>2.1515568914816101</v>
+        <v>1.9510663127694201</v>
       </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.25">
@@ -13377,7 +13377,7 @@
         <v>42938</v>
       </c>
       <c r="C1211">
-        <v>2.22194177261767</v>
+        <v>2.0889290143600099</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.25">
@@ -13385,7 +13385,7 @@
         <v>42939</v>
       </c>
       <c r="C1212">
-        <v>2.1868123721474002</v>
+        <v>1.8051888873117501</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.25">
@@ -13393,7 +13393,7 @@
         <v>42940</v>
       </c>
       <c r="C1213">
-        <v>2.1510077256092499</v>
+        <v>1.6977637364359499</v>
       </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.25">
@@ -13401,7 +13401,7 @@
         <v>42941</v>
       </c>
       <c r="C1214">
-        <v>2.1473130891508601</v>
+        <v>1.6692770427385299</v>
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.25">
@@ -13409,7 +13409,7 @@
         <v>42942</v>
       </c>
       <c r="C1215">
-        <v>2.1587994933024901</v>
+        <v>1.69197496617208</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.25">
@@ -13417,7 +13417,7 @@
         <v>42943</v>
       </c>
       <c r="C1216">
-        <v>2.1421625337346999</v>
+        <v>1.7714583719404999</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.25">
@@ -13425,7 +13425,7 @@
         <v>42944</v>
       </c>
       <c r="C1217">
-        <v>2.17666630775188</v>
+        <v>1.91476069624403</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.25">
@@ -13433,7 +13433,7 @@
         <v>42945</v>
       </c>
       <c r="C1218">
-        <v>2.2825267120773698</v>
+        <v>2.0819212981242101</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
@@ -13441,7 +13441,7 @@
         <v>42946</v>
       </c>
       <c r="C1219">
-        <v>2.1048153950908901</v>
+        <v>1.8192855055739501</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
@@ -13449,7 +13449,7 @@
         <v>42947</v>
       </c>
       <c r="C1220">
-        <v>2.1279569941404302</v>
+        <v>1.73870235510258</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
@@ -13457,7 +13457,7 @@
         <v>42948</v>
       </c>
       <c r="C1221">
-        <v>2.0871201869398601</v>
+        <v>1.98078337300416</v>
       </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.25">
@@ -13465,7 +13465,7 @@
         <v>42949</v>
       </c>
       <c r="C1222">
-        <v>2.1354978897977199</v>
+        <v>1.91621695793577</v>
       </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
@@ -13473,7 +13473,7 @@
         <v>42950</v>
       </c>
       <c r="C1223">
-        <v>2.1412898364933799</v>
+        <v>1.92560760170232</v>
       </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.25">
@@ -13481,7 +13481,7 @@
         <v>42951</v>
       </c>
       <c r="C1224">
-        <v>2.1998495291917699</v>
+        <v>2.0441835460981999</v>
       </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.25">
@@ -13489,7 +13489,7 @@
         <v>42952</v>
       </c>
       <c r="C1225">
-        <v>2.3136419633853502</v>
+        <v>2.1942838117561898</v>
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.25">
@@ -13497,7 +13497,7 @@
         <v>42953</v>
       </c>
       <c r="C1226">
-        <v>2.0497231253097699</v>
+        <v>1.9084284917091501</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.25">
@@ -13505,7 +13505,7 @@
         <v>42954</v>
       </c>
       <c r="C1227">
-        <v>2.0440767335956598</v>
+        <v>1.86205063214877</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.25">
@@ -13513,7 +13513,7 @@
         <v>42955</v>
       </c>
       <c r="C1228">
-        <v>2.0826973006612799</v>
+        <v>1.8370749223856899</v>
       </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.25">
@@ -13521,7 +13521,7 @@
         <v>42956</v>
       </c>
       <c r="C1229">
-        <v>2.0997142565396598</v>
+        <v>1.80551602726572</v>
       </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.25">
@@ -13529,7 +13529,7 @@
         <v>42957</v>
       </c>
       <c r="C1230">
-        <v>2.10334454873054</v>
+        <v>1.8481611450900299</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.25">
@@ -13537,7 +13537,7 @@
         <v>42958</v>
       </c>
       <c r="C1231">
-        <v>2.1495779453071</v>
+        <v>1.9784792714661099</v>
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.25">
@@ -13545,7 +13545,7 @@
         <v>42959</v>
       </c>
       <c r="C1232">
-        <v>2.2373131853731398</v>
+        <v>2.1353885453591399</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.25">
@@ -13553,7 +13553,7 @@
         <v>42960</v>
       </c>
       <c r="C1233">
-        <v>2.1975781310431102</v>
+        <v>1.8142627496708801</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.25">
@@ -13561,7 +13561,7 @@
         <v>42961</v>
       </c>
       <c r="C1234">
-        <v>2.1682840623546702</v>
+        <v>1.76302002096671</v>
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.25">
@@ -13569,7 +13569,7 @@
         <v>42962</v>
       </c>
       <c r="C1235">
-        <v>2.1326123787534201</v>
+        <v>1.73629823983165</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.25">
@@ -13577,7 +13577,7 @@
         <v>42963</v>
       </c>
       <c r="C1236">
-        <v>2.1133507264629801</v>
+        <v>1.73501178611735</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.25">
@@ -13585,7 +13585,7 @@
         <v>42964</v>
       </c>
       <c r="C1237">
-        <v>2.11975387257892</v>
+        <v>1.79908879174248</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.25">
@@ -13593,7 +13593,7 @@
         <v>42965</v>
       </c>
       <c r="C1238">
-        <v>2.1475579028013998</v>
+        <v>1.9247950549808599</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.25">
@@ -13601,7 +13601,7 @@
         <v>42966</v>
       </c>
       <c r="C1239">
-        <v>2.21291497674674</v>
+        <v>2.0725051141698199</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.25">
@@ -13609,7 +13609,7 @@
         <v>42967</v>
       </c>
       <c r="C1240">
-        <v>2.19839436629782</v>
+        <v>1.75171597962984</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.25">
@@ -13617,7 +13617,7 @@
         <v>42968</v>
       </c>
       <c r="C1241">
-        <v>2.14870595557184</v>
+        <v>1.65842222241694</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.25">
@@ -13625,7 +13625,7 @@
         <v>42969</v>
       </c>
       <c r="C1242">
-        <v>2.1367904661669899</v>
+        <v>1.62547626879607</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.25">
@@ -13633,7 +13633,7 @@
         <v>42970</v>
       </c>
       <c r="C1243">
-        <v>2.1502633553400101</v>
+        <v>1.6345304196155901</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.25">
@@ -13641,7 +13641,7 @@
         <v>42971</v>
       </c>
       <c r="C1244">
-        <v>2.1404180637439798</v>
+        <v>1.70407087552111</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.25">
@@ -13649,7 +13649,7 @@
         <v>42972</v>
       </c>
       <c r="C1245">
-        <v>2.1587360167949101</v>
+        <v>1.84679176527481</v>
       </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.25">
@@ -13657,7 +13657,7 @@
         <v>42973</v>
       </c>
       <c r="C1246">
-        <v>2.2496943913752498</v>
+        <v>2.0229683805479302</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.25">
@@ -13665,7 +13665,7 @@
         <v>42974</v>
       </c>
       <c r="C1247">
-        <v>2.1491248437295001</v>
+        <v>1.7222649475367899</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.25">
@@ -13673,7 +13673,7 @@
         <v>42975</v>
       </c>
       <c r="C1248">
-        <v>2.1454746423364899</v>
+        <v>1.62425114180126</v>
       </c>
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.25">
@@ -13681,7 +13681,7 @@
         <v>42976</v>
       </c>
       <c r="C1249">
-        <v>2.1622477287851001</v>
+        <v>1.6160718108391201</v>
       </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.25">
@@ -13689,7 +13689,7 @@
         <v>42977</v>
       </c>
       <c r="C1250">
-        <v>2.16848481112239</v>
+        <v>1.6622978203274199</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.25">
@@ -13697,7 +13697,7 @@
         <v>42978</v>
       </c>
       <c r="C1251">
-        <v>2.16848014286896</v>
+        <v>1.7643059218335599</v>
       </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.25">
@@ -13705,7 +13705,7 @@
         <v>42979</v>
       </c>
       <c r="C1252">
-        <v>2.2521784449809799</v>
+        <v>2.02749451837657</v>
       </c>
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.25">
@@ -13713,7 +13713,7 @@
         <v>42980</v>
       </c>
       <c r="C1253">
-        <v>2.3608392858059801</v>
+        <v>2.1898112712058402</v>
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.25">
@@ -13721,7 +13721,7 @@
         <v>42981</v>
       </c>
       <c r="C1254">
-        <v>2.0362391124000099</v>
+        <v>1.8755267576428101</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.25">
@@ -13729,7 +13729,7 @@
         <v>42982</v>
       </c>
       <c r="C1255">
-        <v>2.00294361086149</v>
+        <v>1.8314039092873999</v>
       </c>
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.25">
@@ -13737,7 +13737,7 @@
         <v>42983</v>
       </c>
       <c r="C1256">
-        <v>2.0709564169607302</v>
+        <v>1.8077375758554199</v>
       </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.25">
@@ -13745,7 +13745,7 @@
         <v>42984</v>
       </c>
       <c r="C1257">
-        <v>2.1118889550493201</v>
+        <v>1.7593297272466599</v>
       </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.25">
@@ -13753,7 +13753,7 @@
         <v>42985</v>
       </c>
       <c r="C1258">
-        <v>2.1115696651778499</v>
+        <v>1.79749240240698</v>
       </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.25">
@@ -13761,7 +13761,7 @@
         <v>42986</v>
       </c>
       <c r="C1259">
-        <v>2.1625684894757198</v>
+        <v>1.9451158972993801</v>
       </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.25">
@@ -13769,7 +13769,7 @@
         <v>42987</v>
       </c>
       <c r="C1260">
-        <v>2.2648901061140401</v>
+        <v>2.1249064695790998</v>
       </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.25">
@@ -13777,7 +13777,7 @@
         <v>42988</v>
       </c>
       <c r="C1261">
-        <v>2.14124067426599</v>
+        <v>1.7826613779754401</v>
       </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.25">
@@ -13785,7 +13785,7 @@
         <v>42989</v>
       </c>
       <c r="C1262">
-        <v>2.1341330106049101</v>
+        <v>1.7435244742598299</v>
       </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.25">
@@ -13793,7 +13793,7 @@
         <v>42990</v>
       </c>
       <c r="C1263">
-        <v>2.1145760418056101</v>
+        <v>1.7193479378047001</v>
       </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.25">
@@ -13801,7 +13801,7 @@
         <v>42991</v>
       </c>
       <c r="C1264">
-        <v>2.0995085440967398</v>
+        <v>1.7139989108727101</v>
       </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.25">
@@ -13809,7 +13809,7 @@
         <v>42992</v>
       </c>
       <c r="C1265">
-        <v>2.1065039645275898</v>
+        <v>1.7767438572865</v>
       </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.25">
@@ -13817,7 +13817,7 @@
         <v>42993</v>
       </c>
       <c r="C1266">
-        <v>2.14456546036884</v>
+        <v>1.91124410903425</v>
       </c>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.25">
@@ -13825,7 +13825,7 @@
         <v>42994</v>
       </c>
       <c r="C1267">
-        <v>2.2153653508945101</v>
+        <v>2.07135620292346</v>
       </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.25">
@@ -13833,7 +13833,7 @@
         <v>42995</v>
       </c>
       <c r="C1268">
-        <v>2.2096333199645302</v>
+        <v>1.74666631435232</v>
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.25">
@@ -13841,7 +13841,7 @@
         <v>42996</v>
       </c>
       <c r="C1269">
-        <v>2.1584528104461902</v>
+        <v>1.6855897645637501</v>
       </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.25">
@@ -13849,7 +13849,7 @@
         <v>42997</v>
       </c>
       <c r="C1270">
-        <v>2.1352907361393898</v>
+        <v>1.6651743363907301</v>
       </c>
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.25">
@@ -13857,7 +13857,7 @@
         <v>42998</v>
       </c>
       <c r="C1271">
-        <v>2.1360596360256201</v>
+        <v>1.67829685895287</v>
       </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.25">
@@ -13865,7 +13865,7 @@
         <v>42999</v>
       </c>
       <c r="C1272">
-        <v>2.13683235696955</v>
+        <v>1.73856685174599</v>
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.25">
@@ -13873,7 +13873,7 @@
         <v>43000</v>
       </c>
       <c r="C1273">
-        <v>2.1527688350731302</v>
+        <v>1.8541992602940001</v>
       </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.25">
@@ -13881,7 +13881,7 @@
         <v>43001</v>
       </c>
       <c r="C1274">
-        <v>2.22721816553425</v>
+        <v>2.0080619789066301</v>
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.25">
@@ -13889,7 +13889,7 @@
         <v>43002</v>
       </c>
       <c r="C1275">
-        <v>2.1808947064172401</v>
+        <v>1.7115026550337</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.25">
@@ -13897,7 +13897,7 @@
         <v>43003</v>
       </c>
       <c r="C1276">
-        <v>2.1518945736827302</v>
+        <v>1.6318079202962299</v>
       </c>
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.25">
@@ -13905,7 +13905,7 @@
         <v>43004</v>
       </c>
       <c r="C1277">
-        <v>2.15175352588588</v>
+        <v>1.6253183287414701</v>
       </c>
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.25">
@@ -13913,7 +13913,7 @@
         <v>43005</v>
       </c>
       <c r="C1278">
-        <v>2.1607148296166501</v>
+        <v>1.65423588524148</v>
       </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.25">
@@ -13921,7 +13921,7 @@
         <v>43006</v>
       </c>
       <c r="C1279">
-        <v>2.1452017435532502</v>
+        <v>1.72516932213083</v>
       </c>
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.25">
@@ -13929,7 +13929,7 @@
         <v>43007</v>
       </c>
       <c r="C1280">
-        <v>2.1869068967358598</v>
+        <v>1.85993893269913</v>
       </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.25">
@@ -13937,7 +13937,7 @@
         <v>43008</v>
       </c>
       <c r="C1281">
-        <v>2.2956430547554501</v>
+        <v>2.0286311079769099</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.25">
@@ -13945,7 +13945,7 @@
         <v>43009</v>
       </c>
       <c r="C1282">
-        <v>2.06597786260533</v>
+        <v>1.9135750655463499</v>
       </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.25">
@@ -13953,7 +13953,7 @@
         <v>43010</v>
       </c>
       <c r="C1283">
-        <v>2.0085166027748298</v>
+        <v>1.8796005255392101</v>
       </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.25">
@@ -13961,7 +13961,7 @@
         <v>43011</v>
       </c>
       <c r="C1284">
-        <v>2.0732391471732998</v>
+        <v>1.8504451885701401</v>
       </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.25">
@@ -13969,7 +13969,7 @@
         <v>43012</v>
       </c>
       <c r="C1285">
-        <v>2.1219145924792699</v>
+        <v>1.78788286333098</v>
       </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.25">
@@ -13977,7 +13977,7 @@
         <v>43013</v>
       </c>
       <c r="C1286">
-        <v>2.1224806000744199</v>
+        <v>1.81548679858923</v>
       </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.25">
@@ -13985,7 +13985,7 @@
         <v>43014</v>
       </c>
       <c r="C1287">
-        <v>2.1773495176687798</v>
+        <v>1.9569395328450701</v>
       </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.25">
@@ -13993,7 +13993,7 @@
         <v>43015</v>
       </c>
       <c r="C1288">
-        <v>2.28745145012169</v>
+        <v>2.1338760039204998</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.25">
@@ -14001,7 +14001,7 @@
         <v>43016</v>
       </c>
       <c r="C1289">
-        <v>2.09101635685494</v>
+        <v>1.8032535970714201</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.25">
@@ -14009,7 +14009,7 @@
         <v>43017</v>
       </c>
       <c r="C1290">
-        <v>2.0904340856936798</v>
+        <v>1.7776969344250999</v>
       </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.25">
@@ -14017,7 +14017,7 @@
         <v>43018</v>
       </c>
       <c r="C1291">
-        <v>2.09769222147641</v>
+        <v>1.7521682698666099</v>
       </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.25">
@@ -14025,7 +14025,7 @@
         <v>43019</v>
       </c>
       <c r="C1292">
-        <v>2.0964455443129002</v>
+        <v>1.7381837948227401</v>
       </c>
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.25">
@@ -14033,7 +14033,7 @@
         <v>43020</v>
       </c>
       <c r="C1293">
-        <v>2.10253557130505</v>
+        <v>1.7926791770383299</v>
       </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.25">
@@ -14041,7 +14041,7 @@
         <v>43021</v>
       </c>
       <c r="C1294">
-        <v>2.14542012347286</v>
+        <v>1.9208315256317701</v>
       </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.25">
@@ -14049,7 +14049,7 @@
         <v>43022</v>
       </c>
       <c r="C1295">
-        <v>2.2238516667433399</v>
+        <v>2.08033587312603</v>
       </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.25">
@@ -14057,7 +14057,7 @@
         <v>43023</v>
       </c>
       <c r="C1296">
-        <v>2.2111330496590198</v>
+        <v>1.7798275949347999</v>
       </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.25">
@@ -14065,7 +14065,7 @@
         <v>43024</v>
       </c>
       <c r="C1297">
-        <v>2.1678352920247499</v>
+        <v>1.73852332814928</v>
       </c>
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.25">
@@ -14073,7 +14073,7 @@
         <v>43025</v>
       </c>
       <c r="C1298">
-        <v>2.1360409718498099</v>
+        <v>1.72218311230246</v>
       </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.25">
@@ -14081,7 +14081,7 @@
         <v>43026</v>
       </c>
       <c r="C1299">
-        <v>2.12482781628256</v>
+        <v>1.73893733750843</v>
       </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.25">
@@ -14089,7 +14089,7 @@
         <v>43027</v>
       </c>
       <c r="C1300">
-        <v>2.1295746430672802</v>
+        <v>1.7928584983142799</v>
       </c>
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.25">
@@ -14097,7 +14097,7 @@
         <v>43028</v>
       </c>
       <c r="C1301">
-        <v>2.1503103756202901</v>
+        <v>1.88608596645972</v>
       </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.25">
@@ -14105,7 +14105,7 @@
         <v>43029</v>
       </c>
       <c r="C1302">
-        <v>2.2177686378657202</v>
+        <v>2.01763066053863</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.25">
@@ -14113,7 +14113,7 @@
         <v>43030</v>
       </c>
       <c r="C1303">
-        <v>2.1912027406038899</v>
+        <v>1.7700706261847099</v>
       </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.25">
@@ -14121,7 +14121,7 @@
         <v>43031</v>
       </c>
       <c r="C1304">
-        <v>2.1496294087061201</v>
+        <v>1.7179057310574699</v>
       </c>
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.25">
@@ -14129,7 +14129,7 @@
         <v>43032</v>
       </c>
       <c r="C1305">
-        <v>2.1430490882268201</v>
+        <v>1.71681696903771</v>
       </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.25">
@@ -14137,7 +14137,7 @@
         <v>43033</v>
       </c>
       <c r="C1306">
-        <v>2.1565703975994701</v>
+        <v>1.7383259950372101</v>
       </c>
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.25">
@@ -14145,7 +14145,7 @@
         <v>43034</v>
       </c>
       <c r="C1307">
-        <v>2.1408023149386999</v>
+        <v>1.77905444823569</v>
       </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.25">
@@ -14153,7 +14153,7 @@
         <v>43035</v>
       </c>
       <c r="C1308">
-        <v>2.1686965214817402</v>
+        <v>1.86842577320359</v>
       </c>
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.25">
@@ -14161,7 +14161,7 @@
         <v>43036</v>
       </c>
       <c r="C1309">
-        <v>2.2704439161352199</v>
+        <v>2.00683284037726</v>
       </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.25">
@@ -14169,7 +14169,7 @@
         <v>43037</v>
       </c>
       <c r="C1310">
-        <v>2.1191522025745901</v>
+        <v>1.84842892093832</v>
       </c>
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.25">
@@ -14177,7 +14177,7 @@
         <v>43038</v>
       </c>
       <c r="C1311">
-        <v>2.1338486553006302</v>
+        <v>1.7591262933716501</v>
       </c>
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.25">
@@ -14185,7 +14185,7 @@
         <v>43039</v>
       </c>
       <c r="C1312">
-        <v>2.1663277366143299</v>
+        <v>1.7397725603310501</v>
       </c>
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.25">
@@ -14193,7 +14193,7 @@
         <v>43040</v>
       </c>
       <c r="C1313">
-        <v>2.1451961266464901</v>
+        <v>1.8852708304738499</v>
       </c>
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.25">
@@ -14201,7 +14201,7 @@
         <v>43041</v>
       </c>
       <c r="C1314">
-        <v>2.1547999906634701</v>
+        <v>1.89303686548669</v>
       </c>
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.25">
@@ -14209,7 +14209,7 @@
         <v>43042</v>
       </c>
       <c r="C1315">
-        <v>2.2147301761734401</v>
+        <v>2.0147148238533701</v>
       </c>
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.25">
@@ -14217,7 +14217,7 @@
         <v>43043</v>
       </c>
       <c r="C1316">
-        <v>2.3282864496137701</v>
+        <v>2.1745836505422602</v>
       </c>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.25">
@@ -14225,7 +14225,7 @@
         <v>43044</v>
       </c>
       <c r="C1317">
-        <v>2.0375592321092899</v>
+        <v>1.8828446318029699</v>
       </c>
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.25">
@@ -14233,7 +14233,7 @@
         <v>43045</v>
       </c>
       <c r="C1318">
-        <v>2.0249209164166602</v>
+        <v>1.8675962708517</v>
       </c>
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.25">
@@ -14241,7 +14241,7 @@
         <v>43046</v>
       </c>
       <c r="C1319">
-        <v>2.0770925538355001</v>
+        <v>1.84262409673233</v>
       </c>
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.25">
@@ -14249,7 +14249,7 @@
         <v>43047</v>
       </c>
       <c r="C1320">
-        <v>2.1031774274644399</v>
+        <v>1.81705251541683</v>
       </c>
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.25">
@@ -14257,7 +14257,7 @@
         <v>43048</v>
       </c>
       <c r="C1321">
-        <v>2.10523352473363</v>
+        <v>1.8603412015326299</v>
       </c>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.25">
@@ -14265,7 +14265,7 @@
         <v>43049</v>
       </c>
       <c r="C1322">
-        <v>2.1529517035979602</v>
+        <v>1.9743657780041901</v>
       </c>
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.25">
@@ -14273,7 +14273,7 @@
         <v>43050</v>
       </c>
       <c r="C1323">
-        <v>2.2456239868055698</v>
+        <v>2.12186654094628</v>
       </c>
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.25">
@@ -14281,7 +14281,7 @@
         <v>43051</v>
       </c>
       <c r="C1324">
-        <v>2.1832968771205401</v>
+        <v>1.8577159780011201</v>
       </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.25">
@@ -14289,7 +14289,7 @@
         <v>43052</v>
       </c>
       <c r="C1325">
-        <v>2.1620189648111698</v>
+        <v>1.83345998613341</v>
       </c>
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.25">
@@ -14297,7 +14297,7 @@
         <v>43053</v>
       </c>
       <c r="C1326">
-        <v>2.12825856553492</v>
+        <v>1.8112671641801701</v>
       </c>
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.25">
@@ -14305,7 +14305,7 @@
         <v>43054</v>
       </c>
       <c r="C1327">
-        <v>2.10796604960484</v>
+        <v>1.81739741502428</v>
       </c>
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.25">
@@ -14313,7 +14313,7 @@
         <v>43055</v>
       </c>
       <c r="C1328">
-        <v>2.1147481625815798</v>
+        <v>1.8606308494649499</v>
       </c>
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.25">
@@ -14321,7 +14321,7 @@
         <v>43056</v>
       </c>
       <c r="C1329">
-        <v>2.1462306707372298</v>
+        <v>1.94086535211456</v>
       </c>
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.25">
@@ -14329,7 +14329,7 @@
         <v>43057</v>
       </c>
       <c r="C1330">
-        <v>2.2123723320631998</v>
+        <v>2.05829791628401</v>
       </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.25">
@@ -14337,7 +14337,7 @@
         <v>43058</v>
       </c>
       <c r="C1331">
-        <v>2.2021937753419398</v>
+        <v>1.8510371478456999</v>
       </c>
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.25">
@@ -14345,7 +14345,7 @@
         <v>43059</v>
       </c>
       <c r="C1332">
-        <v>2.1504015802518599</v>
+        <v>1.81998405083981</v>
       </c>
     </row>
     <row r="1333" spans="1:3" x14ac:dyDescent="0.25">
@@ -14353,7 +14353,7 @@
         <v>43060</v>
       </c>
       <c r="C1333">
-        <v>2.1353168036838199</v>
+        <v>1.81359869816207</v>
       </c>
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.25">
@@ -14361,7 +14361,7 @@
         <v>43061</v>
       </c>
       <c r="C1334">
-        <v>2.1460680434332802</v>
+        <v>1.8232069324792299</v>
       </c>
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.25">
@@ -14369,7 +14369,7 @@
         <v>43062</v>
       </c>
       <c r="C1335">
-        <v>2.1400696669968799</v>
+        <v>1.8434204844115001</v>
       </c>
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.25">
@@ -14377,7 +14377,7 @@
         <v>43063</v>
       </c>
       <c r="C1336">
-        <v>2.1559921775784199</v>
+        <v>1.89884571904927</v>
       </c>
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.25">
@@ -14385,7 +14385,7 @@
         <v>43064</v>
       </c>
       <c r="C1337">
-        <v>2.2410703826646001</v>
+        <v>2.00881227971486</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
@@ -14393,7 +14393,7 @@
         <v>43065</v>
       </c>
       <c r="C1338">
-        <v>2.1621448296350101</v>
+        <v>1.90852972425454</v>
       </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.25">
@@ -14401,7 +14401,7 @@
         <v>43066</v>
       </c>
       <c r="C1339">
-        <v>2.1494234076022698</v>
+        <v>1.8516148955471099</v>
       </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.25">
@@ -14409,7 +14409,7 @@
         <v>43067</v>
       </c>
       <c r="C1340">
-        <v>2.1594550205215901</v>
+        <v>1.83299254450911</v>
       </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.25">
@@ -14417,7 +14417,7 @@
         <v>43068</v>
       </c>
       <c r="C1341">
-        <v>2.1651339448973501</v>
+        <v>1.8584314556325801</v>
       </c>
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.25">
@@ -14425,7 +14425,7 @@
         <v>43069</v>
       </c>
       <c r="C1342">
-        <v>2.1581809290745202</v>
+        <v>1.90428131557782</v>
       </c>
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.25">
@@ -14433,7 +14433,7 @@
         <v>43070</v>
       </c>
       <c r="C1343">
-        <v>2.2521784449809799</v>
+        <v>2.0734287678250301</v>
       </c>
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.25">
@@ -14441,7 +14441,7 @@
         <v>43071</v>
       </c>
       <c r="C1344">
-        <v>2.3608392858059801</v>
+        <v>2.2178514572170198</v>
       </c>
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.25">
@@ -14449,7 +14449,7 @@
         <v>43072</v>
       </c>
       <c r="C1345">
-        <v>2.0362391124000099</v>
+        <v>1.9791789471822401</v>
       </c>
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.25">
@@ -14457,7 +14457,7 @@
         <v>43073</v>
       </c>
       <c r="C1346">
-        <v>2.00294361086149</v>
+        <v>1.95790240612519</v>
       </c>
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.25">
@@ -14465,7 +14465,7 @@
         <v>43074</v>
       </c>
       <c r="C1347">
-        <v>2.0709564169607302</v>
+        <v>1.9279216690255001</v>
       </c>
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.25">
@@ -14473,7 +14473,7 @@
         <v>43075</v>
       </c>
       <c r="C1348">
-        <v>2.1118889550493201</v>
+        <v>1.90412883775005</v>
       </c>
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.25">
@@ -14481,7 +14481,7 @@
         <v>43076</v>
       </c>
       <c r="C1349">
-        <v>2.1115696651778499</v>
+        <v>1.94739970617159</v>
       </c>
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.25">
@@ -14489,7 +14489,7 @@
         <v>43077</v>
       </c>
       <c r="C1350">
-        <v>2.1625684894757198</v>
+        <v>2.0470970605363901</v>
       </c>
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.25">
@@ -14497,7 +14497,7 @@
         <v>43078</v>
       </c>
       <c r="C1351">
-        <v>2.2648901061140401</v>
+        <v>2.1736389220296801</v>
       </c>
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.25">
@@ -14505,7 +14505,7 @@
         <v>43079</v>
       </c>
       <c r="C1352">
-        <v>2.14124067426599</v>
+        <v>1.9513877817694001</v>
       </c>
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.25">
@@ -14513,7 +14513,7 @@
         <v>43080</v>
       </c>
       <c r="C1353">
-        <v>2.1341330106049101</v>
+        <v>1.9375838020048599</v>
       </c>
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.25">
@@ -14521,7 +14521,7 @@
         <v>43081</v>
       </c>
       <c r="C1354">
-        <v>2.1145760418056101</v>
+        <v>1.91747218063991</v>
       </c>
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.25">
@@ -14529,7 +14529,7 @@
         <v>43082</v>
       </c>
       <c r="C1355">
-        <v>2.0995085440967398</v>
+        <v>1.9175147743873999</v>
       </c>
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.25">
@@ -14537,7 +14537,7 @@
         <v>43083</v>
       </c>
       <c r="C1356">
-        <v>2.1065039645275898</v>
+        <v>1.9469521444592399</v>
       </c>
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.25">
@@ -14545,7 +14545,7 @@
         <v>43084</v>
       </c>
       <c r="C1357">
-        <v>2.14456546036884</v>
+        <v>2.0087629478064</v>
       </c>
     </row>
     <row r="1358" spans="1:3" x14ac:dyDescent="0.25">
@@ -14553,7 +14553,7 @@
         <v>43085</v>
       </c>
       <c r="C1358">
-        <v>2.2153653508945101</v>
+        <v>2.10951958094115</v>
       </c>
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.25">
@@ -14561,7 +14561,7 @@
         <v>43086</v>
       </c>
       <c r="C1359">
-        <v>2.2096333199645302</v>
+        <v>1.9402336361063801</v>
       </c>
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.25">
@@ -14569,7 +14569,7 @@
         <v>43087</v>
       </c>
       <c r="C1360">
-        <v>2.1584528104461902</v>
+        <v>1.9219466464195301</v>
       </c>
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.25">
@@ -14577,7 +14577,7 @@
         <v>43088</v>
       </c>
       <c r="C1361">
-        <v>2.1352907361393898</v>
+        <v>1.90944718426983</v>
       </c>
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.25">
@@ -14585,7 +14585,7 @@
         <v>43089</v>
       </c>
       <c r="C1362">
-        <v>2.1360596360256201</v>
+        <v>1.90337514653353</v>
       </c>
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.25">
@@ -14593,7 +14593,7 @@
         <v>43090</v>
       </c>
       <c r="C1363">
-        <v>2.13683235696955</v>
+        <v>1.9088031223428701</v>
       </c>
     </row>
     <row r="1364" spans="1:3" x14ac:dyDescent="0.25">
@@ -14601,7 +14601,7 @@
         <v>43091</v>
       </c>
       <c r="C1364">
-        <v>2.1527688350731302</v>
+        <v>1.94831877929683</v>
       </c>
     </row>
     <row r="1365" spans="1:3" x14ac:dyDescent="0.25">
@@ -14609,7 +14609,7 @@
         <v>43092</v>
       </c>
       <c r="C1365">
-        <v>2.22721816553425</v>
+        <v>2.0413762347137898</v>
       </c>
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.25">
@@ -14617,7 +14617,7 @@
         <v>43093</v>
       </c>
       <c r="C1366">
-        <v>2.1808947064172401</v>
+        <v>1.98812200405925</v>
       </c>
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.25">
@@ -14625,7 +14625,7 @@
         <v>43094</v>
       </c>
       <c r="C1367">
-        <v>2.1518945736827302</v>
+        <v>1.95260599982121</v>
       </c>
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.25">
@@ -14633,7 +14633,7 @@
         <v>43095</v>
       </c>
       <c r="C1368">
-        <v>2.15175352588588</v>
+        <v>1.9279502450058399</v>
       </c>
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.25">
@@ -14641,7 +14641,7 @@
         <v>43096</v>
       </c>
       <c r="C1369">
-        <v>2.1607148296166501</v>
+        <v>1.9260469809873599</v>
       </c>
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.25">
@@ -14649,7 +14649,7 @@
         <v>43097</v>
       </c>
       <c r="C1370">
-        <v>2.1452017435532502</v>
+        <v>1.9395008532740901</v>
       </c>
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.25">
@@ -14657,7 +14657,7 @@
         <v>43098</v>
       </c>
       <c r="C1371">
-        <v>2.1869068967358598</v>
+        <v>1.98279409876076</v>
       </c>
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.25">
@@ -14665,7 +14665,7 @@
         <v>43099</v>
       </c>
       <c r="C1372">
-        <v>2.2956430547554501</v>
+        <v>2.07415530440653</v>
       </c>
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.25">
@@ -14673,7 +14673,7 @@
         <v>43100</v>
       </c>
       <c r="C1373">
-        <v>2.0929325235429102</v>
+        <v>2.1063154181949999</v>
       </c>
     </row>
   </sheetData>

--- a/models/PurchasePricePrediction.xlsx
+++ b/models/PurchasePricePrediction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i327636\Desktop\tmp\weka\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-git\data-mining\DataMining\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13498B85-4B39-4741-A312-550C6F0E8D04}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B517CFD6-54FB-4D4E-8218-C68C10F978C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{A58F7580-45F0-46A6-9A1C-38B388C5561B}"/>
   </bookViews>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4248C3-12D7-4669-ACAB-4AE7F7FDE02C}">
   <dimension ref="A1:C1373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A1077" workbookViewId="0">
+      <selection activeCell="C1099" sqref="C1099:C1373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12481,7 +12481,7 @@
         <v>42826</v>
       </c>
       <c r="C1099">
-        <v>2.33410743154761</v>
+        <v>2.1908149522026101</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
@@ -12489,7 +12489,7 @@
         <v>42827</v>
       </c>
       <c r="C1100">
-        <v>2.2914244047619001</v>
+        <v>2.1908149522026101</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
@@ -12537,7 +12537,7 @@
         <v>42833</v>
       </c>
       <c r="C1106">
-        <v>2.2942759523809499</v>
+        <v>2.3046290476190401</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
@@ -12545,7 +12545,7 @@
         <v>42834</v>
       </c>
       <c r="C1107">
-        <v>2.2495241964285699</v>
+        <v>2.3046290476190401</v>
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
@@ -12593,7 +12593,7 @@
         <v>42840</v>
       </c>
       <c r="C1113">
-        <v>2.27675028869047</v>
+        <v>2.2762448303571401</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
@@ -12601,7 +12601,7 @@
         <v>42841</v>
       </c>
       <c r="C1114">
-        <v>2.22110817261904</v>
+        <v>2.2762448303571401</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
@@ -12649,7 +12649,7 @@
         <v>42847</v>
       </c>
       <c r="C1120">
-        <v>2.25730903953685</v>
+        <v>2.2604618403610202</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
@@ -12657,7 +12657,7 @@
         <v>42848</v>
       </c>
       <c r="C1121">
-        <v>2.18810515957653</v>
+        <v>2.2604618403610202</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
@@ -12705,7 +12705,7 @@
         <v>42854</v>
       </c>
       <c r="C1127">
-        <v>2.2517560876484599</v>
+        <v>2.2542930889110799</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
@@ -12713,7 +12713,7 @@
         <v>42855</v>
       </c>
       <c r="C1128">
-        <v>2.1824992034146402</v>
+        <v>2.2542930889110799</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
@@ -12761,7 +12761,7 @@
         <v>42861</v>
       </c>
       <c r="C1134">
-        <v>2.3198648998015798</v>
+        <v>2.32783644146825</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
@@ -12769,7 +12769,7 @@
         <v>42862</v>
       </c>
       <c r="C1135">
-        <v>2.2728755833333301</v>
+        <v>2.32783644146825</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
@@ -12817,7 +12817,7 @@
         <v>42868</v>
       </c>
       <c r="C1141">
-        <v>2.2871318045634901</v>
+        <v>2.2872335009920599</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.25">
@@ -12825,7 +12825,7 @@
         <v>42869</v>
       </c>
       <c r="C1142">
-        <v>2.2128844226190401</v>
+        <v>2.2872335009920599</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.25">
@@ -12873,7 +12873,7 @@
         <v>42875</v>
       </c>
       <c r="C1148">
-        <v>2.2647778802308798</v>
+        <v>2.2653151302308698</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.25">
@@ -12881,7 +12881,7 @@
         <v>42876</v>
       </c>
       <c r="C1149">
-        <v>2.19349839750388</v>
+        <v>2.2653151302308698</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
         <v>42882</v>
       </c>
       <c r="C1155">
-        <v>2.2504228736333101</v>
+        <v>2.2503978736333101</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.25">
@@ -12937,7 +12937,7 @@
         <v>42883</v>
       </c>
       <c r="C1156">
-        <v>2.1819508530899601</v>
+        <v>2.2503978736333101</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.25">
@@ -12985,7 +12985,7 @@
         <v>42889</v>
       </c>
       <c r="C1162">
-        <v>2.3686602648809498</v>
+        <v>2.36626855654761</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.25">
@@ -12993,7 +12993,7 @@
         <v>42890</v>
       </c>
       <c r="C1163">
-        <v>2.32036611309523</v>
+        <v>2.36626855654761</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.25">
@@ -13041,7 +13041,7 @@
         <v>42896</v>
       </c>
       <c r="C1169">
-        <v>2.3414740416666602</v>
+        <v>2.3477119583333299</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
@@ -13049,7 +13049,7 @@
         <v>42897</v>
       </c>
       <c r="C1170">
-        <v>2.25812681547619</v>
+        <v>2.3477119583333299</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.25">
@@ -13097,7 +13097,7 @@
         <v>42903</v>
       </c>
       <c r="C1176">
-        <v>2.30232925595238</v>
+        <v>2.3019185416666601</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.25">
@@ -13105,7 +13105,7 @@
         <v>42904</v>
       </c>
       <c r="C1177">
-        <v>2.2175359226190401</v>
+        <v>2.3019185416666601</v>
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
@@ -13153,7 +13153,7 @@
         <v>42910</v>
       </c>
       <c r="C1183">
-        <v>2.23693561232378</v>
+        <v>2.2415182368659101</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
@@ -13161,7 +13161,7 @@
         <v>42911</v>
       </c>
       <c r="C1184">
-        <v>2.1687525268994801</v>
+        <v>2.2415182368659101</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
@@ -13209,7 +13209,7 @@
         <v>42917</v>
       </c>
       <c r="C1190">
-        <v>2.2338794565242699</v>
+        <v>2.2224782612595702</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
@@ -13217,7 +13217,7 @@
         <v>42918</v>
       </c>
       <c r="C1191">
-        <v>2.1669263144607802</v>
+        <v>2.2224782612595702</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
@@ -13265,7 +13265,7 @@
         <v>42924</v>
       </c>
       <c r="C1197">
-        <v>2.22888401669743</v>
+        <v>2.2211841529528402</v>
       </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.25">
@@ -13273,7 +13273,7 @@
         <v>42925</v>
       </c>
       <c r="C1198">
-        <v>2.1713803448720399</v>
+        <v>2.2211841529528402</v>
       </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.25">
@@ -13321,7 +13321,7 @@
         <v>42931</v>
       </c>
       <c r="C1204">
-        <v>2.21206279898459</v>
+        <v>2.2192389488402902</v>
       </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.25">
@@ -13329,7 +13329,7 @@
         <v>42932</v>
       </c>
       <c r="C1205">
-        <v>2.1526934753734799</v>
+        <v>2.2192389488402902</v>
       </c>
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.25">
@@ -13377,7 +13377,7 @@
         <v>42938</v>
       </c>
       <c r="C1211">
-        <v>2.1845223135211902</v>
+        <v>2.17860412185453</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.25">
@@ -13385,7 +13385,7 @@
         <v>42939</v>
       </c>
       <c r="C1212">
-        <v>2.1230919051878598</v>
+        <v>2.17860412185453</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.25">
@@ -13433,7 +13433,7 @@
         <v>42945</v>
       </c>
       <c r="C1218">
-        <v>2.12979026223914</v>
+        <v>2.1316373190573299</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
@@ -13441,7 +13441,7 @@
         <v>42946</v>
       </c>
       <c r="C1219">
-        <v>2.08378995717199</v>
+        <v>2.1316373190573299</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
@@ -13489,7 +13489,7 @@
         <v>42952</v>
       </c>
       <c r="C1225">
-        <v>2.1059902875000001</v>
+        <v>2.0894347648809499</v>
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.25">
@@ -13497,7 +13497,7 @@
         <v>42953</v>
       </c>
       <c r="C1226">
-        <v>2.0804367638888901</v>
+        <v>2.0894347648809499</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.25">
@@ -13545,7 +13545,7 @@
         <v>42959</v>
       </c>
       <c r="C1232">
-        <v>2.1379486128413201</v>
+        <v>2.1255517158175099</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.25">
@@ -13553,7 +13553,7 @@
         <v>42960</v>
       </c>
       <c r="C1233">
-        <v>2.1031051722582901</v>
+        <v>2.1255517158175099</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.25">
@@ -13601,7 +13601,7 @@
         <v>42966</v>
       </c>
       <c r="C1239">
-        <v>2.14481151522227</v>
+        <v>2.1473383235556098</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.25">
@@ -13609,7 +13609,7 @@
         <v>42967</v>
       </c>
       <c r="C1240">
-        <v>2.0925713837662299</v>
+        <v>2.1473383235556098</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.25">
@@ -13657,7 +13657,7 @@
         <v>42973</v>
       </c>
       <c r="C1246">
-        <v>2.0046669534188002</v>
+        <v>2.0269334498473701</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.25">
@@ -13665,7 +13665,7 @@
         <v>42974</v>
       </c>
       <c r="C1247">
-        <v>1.9992152211857499</v>
+        <v>2.0269334498473701</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.25">
@@ -13713,7 +13713,7 @@
         <v>42980</v>
       </c>
       <c r="C1253">
-        <v>2.04158238110996</v>
+        <v>2.0383451918942699</v>
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.25">
@@ -13721,7 +13721,7 @@
         <v>42981</v>
       </c>
       <c r="C1254">
-        <v>2.0085086274822301</v>
+        <v>2.0383451918942699</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.25">
@@ -13769,7 +13769,7 @@
         <v>42987</v>
       </c>
       <c r="C1260">
-        <v>2.0547822234612401</v>
+        <v>2.0549643067945702</v>
       </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.25">
@@ -13777,7 +13777,7 @@
         <v>42988</v>
       </c>
       <c r="C1261">
-        <v>2.0316575312595901</v>
+        <v>2.0549643067945702</v>
       </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.25">
@@ -13825,7 +13825,7 @@
         <v>42994</v>
       </c>
       <c r="C1267">
-        <v>2.0573631093739402</v>
+        <v>2.0555975802072699</v>
       </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.25">
@@ -13833,7 +13833,7 @@
         <v>42995</v>
       </c>
       <c r="C1268">
-        <v>2.04650538054364</v>
+        <v>2.0555975802072699</v>
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.25">
@@ -13881,7 +13881,7 @@
         <v>43001</v>
       </c>
       <c r="C1274">
-        <v>2.0508404531447102</v>
+        <v>2.0594010227175401</v>
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.25">
@@ -13889,7 +13889,7 @@
         <v>43002</v>
       </c>
       <c r="C1275">
-        <v>2.0159193429798101</v>
+        <v>2.0594010227175401</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.25">
@@ -13937,7 +13937,7 @@
         <v>43008</v>
       </c>
       <c r="C1281">
-        <v>2.0472154146602799</v>
+        <v>2.0489421416444098</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.25">
@@ -13945,7 +13945,7 @@
         <v>43009</v>
       </c>
       <c r="C1282">
-        <v>2.00887326375915</v>
+        <v>2.0489421416444098</v>
       </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.25">
@@ -13993,7 +13993,7 @@
         <v>43015</v>
       </c>
       <c r="C1288">
-        <v>2.0325593311889398</v>
+        <v>2.03152474785561</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.25">
@@ -14001,7 +14001,7 @@
         <v>43016</v>
       </c>
       <c r="C1289">
-        <v>2.0373100557844901</v>
+        <v>2.03152474785561</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.25">
@@ -14049,7 +14049,7 @@
         <v>43022</v>
       </c>
       <c r="C1295">
-        <v>2.1009988407647899</v>
+        <v>2.1049074518759001</v>
       </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.25">
@@ -14057,7 +14057,7 @@
         <v>43023</v>
       </c>
       <c r="C1296">
-        <v>2.05768328472222</v>
+        <v>2.1049074518759001</v>
       </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.25">
@@ -14105,7 +14105,7 @@
         <v>43029</v>
       </c>
       <c r="C1302">
-        <v>2.1060505343406501</v>
+        <v>2.10934497902791</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.25">
@@ -14113,7 +14113,7 @@
         <v>43030</v>
       </c>
       <c r="C1303">
-        <v>2.0484657438048002</v>
+        <v>2.10934497902791</v>
       </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.25">
@@ -14161,7 +14161,7 @@
         <v>43036</v>
       </c>
       <c r="C1309">
-        <v>2.0752576686799298</v>
+        <v>2.08106307568542</v>
       </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.25">
@@ -14169,7 +14169,7 @@
         <v>43037</v>
       </c>
       <c r="C1310">
-        <v>2.0624440967088402</v>
+        <v>2.08106307568542</v>
       </c>
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.25">
@@ -14217,7 +14217,7 @@
         <v>43043</v>
       </c>
       <c r="C1316">
-        <v>2.0941994352869302</v>
+        <v>2.0926778991758201</v>
       </c>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.25">
@@ -14225,7 +14225,7 @@
         <v>43044</v>
       </c>
       <c r="C1317">
-        <v>2.0508113122294298</v>
+        <v>2.0926778991758201</v>
       </c>
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.25">
@@ -14273,7 +14273,7 @@
         <v>43050</v>
       </c>
       <c r="C1323">
-        <v>2.07179464880952</v>
+        <v>2.06988381547619</v>
       </c>
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.25">
@@ -14281,7 +14281,7 @@
         <v>43051</v>
       </c>
       <c r="C1324">
-        <v>2.0350503047022399</v>
+        <v>2.06988381547619</v>
       </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.25">
@@ -14329,7 +14329,7 @@
         <v>43057</v>
       </c>
       <c r="C1330">
-        <v>2.0747828581349101</v>
+        <v>2.0743411636904701</v>
       </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.25">
@@ -14337,7 +14337,7 @@
         <v>43058</v>
       </c>
       <c r="C1331">
-        <v>2.0418533015289402</v>
+        <v>2.0743411636904701</v>
       </c>
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.25">
@@ -14385,7 +14385,7 @@
         <v>43064</v>
       </c>
       <c r="C1337">
-        <v>2.0387224294649702</v>
+        <v>2.0384256069541502</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
@@ -14393,7 +14393,7 @@
         <v>43065</v>
       </c>
       <c r="C1338">
-        <v>2.0562140976425498</v>
+        <v>2.0384256069541502</v>
       </c>
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.25">
@@ -14441,7 +14441,7 @@
         <v>43071</v>
       </c>
       <c r="C1344">
-        <v>2.0738493617826599</v>
+        <v>2.0569895344017</v>
       </c>
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.25">
@@ -14449,7 +14449,7 @@
         <v>43072</v>
       </c>
       <c r="C1345">
-        <v>2.0469959420634898</v>
+        <v>2.0569895344017</v>
       </c>
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.25">
@@ -14497,7 +14497,7 @@
         <v>43078</v>
       </c>
       <c r="C1351">
-        <v>2.0948912731227098</v>
+        <v>2.0894635201465199</v>
       </c>
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.25">
@@ -14505,7 +14505,7 @@
         <v>43079</v>
       </c>
       <c r="C1352">
-        <v>2.0659511301892501</v>
+        <v>2.0894635201465199</v>
       </c>
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.25">
@@ -14553,7 +14553,7 @@
         <v>43085</v>
       </c>
       <c r="C1358">
-        <v>2.0775199457417499</v>
+        <v>2.0806464338369901</v>
       </c>
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.25">
@@ -14561,7 +14561,7 @@
         <v>43086</v>
       </c>
       <c r="C1359">
-        <v>2.0428735237511599</v>
+        <v>2.0806464338369901</v>
       </c>
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.25">
@@ -14609,7 +14609,7 @@
         <v>43092</v>
       </c>
       <c r="C1365">
-        <v>2.0324908925060998</v>
+        <v>2.0453601329822901</v>
       </c>
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.25">
@@ -14617,7 +14617,7 @@
         <v>43093</v>
       </c>
       <c r="C1366">
-        <v>2.0286451705682298</v>
+        <v>2.0453601329822901</v>
       </c>
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.25">
@@ -14665,7 +14665,7 @@
         <v>43099</v>
       </c>
       <c r="C1372">
-        <v>2.0641522118561899</v>
+        <v>2.0640596451895301</v>
       </c>
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.25">
@@ -14673,7 +14673,7 @@
         <v>43100</v>
       </c>
       <c r="C1373">
-        <v>2.0524060736887302</v>
+        <v>2.0640596451895301</v>
       </c>
     </row>
   </sheetData>
